--- a/output/repo.xlsx
+++ b/output/repo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,31 +550,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GTH-in-Laravel</t>
+          <t>githubData</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29550</v>
+        <v>78</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2019-01-14T15:45:51Z</t>
+          <t>2024-03-05T02:21:30Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GTH-in-React</t>
+          <t>GTH-in-Laravel</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>530</v>
+        <v>29550</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -583,18 +583,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2019-02-06T22:25:54Z</t>
+          <t>2019-01-14T15:45:51Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>GTH-in-React</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1539</v>
+        <v>530</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -603,114 +603,114 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018-02-18T15:23:51Z</t>
+          <t>2019-02-06T22:25:54Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PrimerProy</t>
+          <t>java</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2018-02-07T02:52:32Z</t>
+          <t>2018-02-18T15:23:51Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ProyectoX-chatbot</t>
+          <t>PrimerProy</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4554</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018-06-17T02:21:52Z</t>
+          <t>2018-02-07T02:52:32Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PythonModel</t>
+          <t>ProyectoX-chatbot</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62</v>
+        <v>4554</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-04-26T16:29:14Z</t>
+          <t>2018-06-17T02:21:52Z</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SmartContractExamples</t>
+          <t>PythonModel</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-08-16T14:20:09Z</t>
+          <t>2023-04-26T16:29:14Z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spring</t>
+          <t>SmartContractExamples</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-04-06T00:44:45Z</t>
+          <t>2023-08-16T14:20:09Z</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SpringBoot</t>
+          <t>Spring</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -719,54 +719,54 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-07-13T03:14:09Z</t>
+          <t>2021-04-06T00:44:45Z</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VB_and_SQL</t>
+          <t>SpringBoot</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2018-01-02T05:23:22Z</t>
+          <t>2021-07-13T03:14:09Z</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>financial-company</t>
+          <t>VB_and_SQL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2019-02-10T20:44:10Z</t>
+          <t>2018-01-02T05:23:22Z</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>meetings-dashboard</t>
+          <t>financial-company</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8552</v>
+        <v>1186</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -775,41 +775,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2019-01-14T00:36:26Z</t>
+          <t>2019-02-10T20:44:10Z</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>supply-management</t>
+          <t>meetings-dashboard</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1530</v>
+        <v>8552</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TypeScript</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2019-06-06T23:45:45Z</t>
+          <t>2019-01-14T00:36:26Z</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>supply-management</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2019-06-06T23:45:45Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>2019-09-14T18:21:16Z</t>
         </is>
